--- a/test/files/utf8.xlsx
+++ b/test/files/utf8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijn/Developer/xsv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijn/Developer/xsv/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4D7D7C-C178-1143-8282-A7D7A7BC6BBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1CF58-9639-C14B-9D8C-AF70C8C559B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5440" windowWidth="28040" windowHeight="17360" xr2:uid="{8D7C52E9-4A3B-0F4C-B9D5-16B711608755}"/>
+    <workbookView xWindow="24760" yWindow="6680" windowWidth="28040" windowHeight="17360" xr2:uid="{8D7C52E9-4A3B-0F4C-B9D5-16B711608755}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Zé</t>
+  </si>
+  <si>
+    <t>euro €</t>
+  </si>
+  <si>
+    <t>entities "&amp;'&lt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;€&quot;\ * #,##0.00_);_(&quot;€&quot;\ * \(#,##0.00\);_(&quot;€&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +66,13 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,15 +92,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,15 +415,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4A4EDB-961A-484F-B2B5-BE286A7769D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/test/files/utf8.xlsx
+++ b/test/files/utf8.xlsx
@@ -42,7 +42,7 @@
     <t>euro €</t>
   </si>
   <si>
-    <t>entities "&amp;'&lt;&gt;</t>
+    <t>entities "&amp;'&lt;&gt;ä</t>
   </si>
 </sst>
 </file>
